--- a/Lab-1/AI lab-1.xlsx
+++ b/Lab-1/AI lab-1.xlsx
@@ -22,37 +22,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
+    <t xml:space="preserve">down,up,right,left,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics (cell width=3,cell height=2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. horizontal cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. vertical cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. states explored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFID</t>
+  </si>
+  <si>
     <t xml:space="preserve">right,left,down,up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistics (cell width=3,cell height=2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. horizontal cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. vertical cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. states explored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Path length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">down,up,right,left,</t>
   </si>
 </sst>
 </file>
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -92,6 +92,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -179,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,31 +195,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,20 +304,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,7 +614,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -613,19 +624,20 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>6</v>
       </c>
     </row>
